--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5241,6 +5241,98 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45205.75</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Velez Mostar</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Posusje</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:54</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:54</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>05/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>06/10/2023 17:54</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/velez-mostar-posusje/Knb01a2J/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Velez Mostar</t>
+          <t>Tuzla City</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Igman K.</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Zeljeznicar</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>2.28</v>
+        <v>1.74</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>03/09/2023 19:33</t>
+          <t>03/09/2023 19:42</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>2.94</v>
+        <v>3.53</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.16</v>
+        <v>3.43</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>03/09/2023 19:33</t>
+          <t>03/09/2023 19:42</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.97</v>
+        <v>3.9</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>03/09/2023 19:33</t>
+          <t>03/09/2023 19:42</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/velez-mostar-zeljeznicar/pYiRnuWS/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/tuzla-city-igman-konjic/nsvgravp/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tuzla City</t>
+          <t>Velez Mostar</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Igman K.</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.74</v>
+        <v>2.28</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>03/09/2023 19:42</t>
+          <t>03/09/2023 19:33</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.53</v>
+        <v>2.94</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.43</v>
+        <v>3.16</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>03/09/2023 19:42</t>
+          <t>03/09/2023 19:33</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.9</v>
+        <v>2.97</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.29</v>
+        <v>4.25</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>03/09/2023 19:42</t>
+          <t>03/09/2023 19:33</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/tuzla-city-igman-konjic/nsvgravp/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/velez-mostar-zeljeznicar/pYiRnuWS/</t>
         </is>
       </c>
     </row>
@@ -5330,6 +5330,98 @@
       <c r="V53" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/velez-mostar-posusje/Knb01a2J/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Zvijezda 09</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Tuzla City</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:36</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:36</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:36</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zvijezda-09-tuzla-city/bwc40JHP/</t>
         </is>
       </c>
     </row>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5425,6 +5425,98 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>GOSK Gabela</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Borac Banja Luka</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/nk-gosk-gabela-borac-banja-luka/GEXJh7bJ/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5517,6 +5517,190 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45207.75</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Siroki Brijeg</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Igman K.</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>07/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>07/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>07/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/siroki-brijeg-igman-konjic/8lUBfTT6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45207.85416666666</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>FK Sarajevo</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Zeljeznicar</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>07/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:20</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>07/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:20</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>07/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:20</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/fk-sarajevo-zeljeznicar/jVlWewQt/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tuzla City</t>
+          <t>Velez Mostar</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Igman K.</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.74</v>
+        <v>2.28</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>03/09/2023 19:42</t>
+          <t>03/09/2023 19:33</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.53</v>
+        <v>2.94</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.43</v>
+        <v>3.16</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>03/09/2023 19:42</t>
+          <t>03/09/2023 19:33</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.9</v>
+        <v>2.97</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.29</v>
+        <v>4.25</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>03/09/2023 19:42</t>
+          <t>03/09/2023 19:33</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/tuzla-city-igman-konjic/nsvgravp/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/velez-mostar-zeljeznicar/pYiRnuWS/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Velez Mostar</t>
+          <t>Tuzla City</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Igman K.</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Zeljeznicar</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.28</v>
+        <v>1.74</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>03/09/2023 19:33</t>
+          <t>03/09/2023 19:42</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2.94</v>
+        <v>3.53</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.16</v>
+        <v>3.43</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>03/09/2023 19:33</t>
+          <t>03/09/2023 19:42</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.97</v>
+        <v>3.9</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>03/09/2023 19:33</t>
+          <t>03/09/2023 19:42</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/velez-mostar-zeljeznicar/pYiRnuWS/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/tuzla-city-igman-konjic/nsvgravp/</t>
         </is>
       </c>
     </row>
@@ -5698,6 +5698,98 @@
       <c r="V57" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/fk-sarajevo-zeljeznicar/jVlWewQt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45208.75</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Zrinjski</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Sloga Doboj</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>08/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>09/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>08/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>09/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>08/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>09/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zrinjski-sloga-doboj/2BTFgmqD/</t>
         </is>
       </c>
     </row>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Velez Mostar</t>
+          <t>Tuzla City</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Igman K.</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Zeljeznicar</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>2.28</v>
+        <v>1.74</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>03/09/2023 19:33</t>
+          <t>03/09/2023 19:42</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>2.94</v>
+        <v>3.53</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.16</v>
+        <v>3.43</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>03/09/2023 19:33</t>
+          <t>03/09/2023 19:42</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.97</v>
+        <v>3.9</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>03/09/2023 19:33</t>
+          <t>03/09/2023 19:42</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/velez-mostar-zeljeznicar/pYiRnuWS/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/tuzla-city-igman-konjic/nsvgravp/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tuzla City</t>
+          <t>Velez Mostar</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Igman K.</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.74</v>
+        <v>2.28</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>03/09/2023 19:42</t>
+          <t>03/09/2023 19:33</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.53</v>
+        <v>2.94</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.43</v>
+        <v>3.16</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>03/09/2023 19:42</t>
+          <t>03/09/2023 19:33</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.9</v>
+        <v>2.97</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.29</v>
+        <v>4.25</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>03/09/2023 19:42</t>
+          <t>03/09/2023 19:33</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/tuzla-city-igman-konjic/nsvgravp/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/velez-mostar-zeljeznicar/pYiRnuWS/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Siroki Brijeg</t>
+          <t>Borac Banja Luka</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Zvijezda 09</t>
+          <t>Posusje</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>17/09/2023 19:43</t>
+          <t>17/09/2023 18:31</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.38</v>
+        <v>3.98</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.14</v>
+        <v>4.3</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>17/09/2023 19:43</t>
+          <t>17/09/2023 18:49</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>6.1</v>
+        <v>5.43</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>5.98</v>
+        <v>7.97</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>17/09/2023 19:43</t>
+          <t>17/09/2023 18:39</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/siroki-brijeg-zvijezda-09/z3Gq5Moc/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/borac-banja-luka-posusje/Ycx1tw9d/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Borac Banja Luka</t>
+          <t>Siroki Brijeg</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Zvijezda 09</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
         <v>1</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Posusje</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
       <c r="J37" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 18:31</t>
+          <t>17/09/2023 19:43</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.98</v>
+        <v>4.38</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>4.3</v>
+        <v>4.14</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>17/09/2023 18:49</t>
+          <t>17/09/2023 19:43</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>5.43</v>
+        <v>6.1</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>7.97</v>
+        <v>5.98</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>17/09/2023 18:39</t>
+          <t>17/09/2023 19:43</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/borac-banja-luka-posusje/Ycx1tw9d/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/siroki-brijeg-zvijezda-09/z3Gq5Moc/</t>
         </is>
       </c>
     </row>
@@ -5790,6 +5790,190 @@
       <c r="V58" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zrinjski-sloga-doboj/2BTFgmqD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45217.6875</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Zrinjski</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Velez Mostar</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>17/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>18/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>17/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>18/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>17/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>18/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zrinjski-velez-mostar/pbyIL2XT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45217.79166666666</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Borac Banja Luka</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>FK Sarajevo</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>04/08/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>18/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>04/08/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>18/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>04/08/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>18/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/borac-banja-luka-fk-sarajevo/lnQh2Zm6/</t>
         </is>
       </c>
     </row>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5977,6 +5977,98 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45220.5625</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sloga Doboj</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Siroki Brijeg</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:23</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:23</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:23</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/sloga-doboj-siroki-brijeg/dYviiFvC/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6069,6 +6069,190 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45220.77083333334</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Posusje</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>GOSK Gabela</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>20/10/2023 05:43</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:16</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>20/10/2023 05:43</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:16</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>20/10/2023 05:43</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:16</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/posusje-nk-gosk-gabela/CpwufHfg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45220.86458333334</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Zeljeznicar</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Zvijezda 09</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>20/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:38</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>20/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:39</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>20/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:39</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zeljeznicar-zvijezda-09/E9ZejZgI/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tuzla City</t>
+          <t>Velez Mostar</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Igman K.</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.74</v>
+        <v>2.28</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>03/09/2023 19:42</t>
+          <t>03/09/2023 19:33</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.53</v>
+        <v>2.94</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.43</v>
+        <v>3.16</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>03/09/2023 19:42</t>
+          <t>03/09/2023 19:33</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.9</v>
+        <v>2.97</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.29</v>
+        <v>4.25</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>03/09/2023 19:42</t>
+          <t>03/09/2023 19:33</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/tuzla-city-igman-konjic/nsvgravp/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/velez-mostar-zeljeznicar/pYiRnuWS/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Velez Mostar</t>
+          <t>Tuzla City</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Igman K.</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Zeljeznicar</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.28</v>
+        <v>1.74</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>03/09/2023 19:33</t>
+          <t>03/09/2023 19:42</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2.94</v>
+        <v>3.53</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.16</v>
+        <v>3.43</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>03/09/2023 19:33</t>
+          <t>03/09/2023 19:42</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.97</v>
+        <v>3.9</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>03/09/2023 19:33</t>
+          <t>03/09/2023 19:42</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/velez-mostar-zeljeznicar/pYiRnuWS/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/tuzla-city-igman-konjic/nsvgravp/</t>
         </is>
       </c>
     </row>
@@ -6250,6 +6250,282 @@
       <c r="V63" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zeljeznicar-zvijezda-09/E9ZejZgI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Igman K.</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>FK Sarajevo</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:55</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>21/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:55</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/igman-konjic-fk-sarajevo/IstmheP5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45221.82291666666</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Borac Banja Luka</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Zrinjski</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>21/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>22/10/2023 19:44</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>21/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>22/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>21/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>22/10/2023 19:44</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/borac-banja-luka-zrinjski/OKtqgyAa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45222.60416666666</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Tuzla City</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Velez Mostar</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>22/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>23/10/2023 14:28</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>22/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>23/10/2023 14:28</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>22/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>23/10/2023 14:28</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/tuzla-city-velez-mostar/ULmzecum/</t>
         </is>
       </c>
     </row>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Borac Banja Luka</t>
+          <t>Siroki Brijeg</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Zvijezda 09</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>1</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Posusje</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
       <c r="J36" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>17/09/2023 18:31</t>
+          <t>17/09/2023 19:43</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.98</v>
+        <v>4.38</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.3</v>
+        <v>4.14</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>17/09/2023 18:49</t>
+          <t>17/09/2023 19:43</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>5.43</v>
+        <v>6.1</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>7.97</v>
+        <v>5.98</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>17/09/2023 18:39</t>
+          <t>17/09/2023 19:43</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/borac-banja-luka-posusje/Ycx1tw9d/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/siroki-brijeg-zvijezda-09/z3Gq5Moc/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Siroki Brijeg</t>
+          <t>Borac Banja Luka</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Zvijezda 09</t>
+          <t>Posusje</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 19:43</t>
+          <t>17/09/2023 18:31</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>4.38</v>
+        <v>3.98</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>4.14</v>
+        <v>4.3</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>17/09/2023 19:43</t>
+          <t>17/09/2023 18:49</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>6.1</v>
+        <v>5.43</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>5.98</v>
+        <v>7.97</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>17/09/2023 19:43</t>
+          <t>17/09/2023 18:39</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/siroki-brijeg-zvijezda-09/z3Gq5Moc/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/borac-banja-luka-posusje/Ycx1tw9d/</t>
         </is>
       </c>
     </row>
@@ -6526,6 +6526,558 @@
       <c r="V66" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/tuzla-city-velez-mostar/ULmzecum/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45226.58333333334</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Igman K.</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Zeljeznicar</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>26/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/igman-konjic-zeljeznicar/h0Yakg9O/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45227.5625</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sloga Doboj</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>FK Sarajevo</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:22</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:22</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:22</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/sloga-doboj-fk-sarajevo/63MsExnP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Borac Banja Luka</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Siroki Brijeg</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>27/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>27/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>27/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/borac-banja-luka-siroki-brijeg/rPD99dft/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Zvijezda 09</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Velez Mostar</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zvijezda-09-velez-mostar/C41M6fva/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45228.77777777778</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Posusje</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Zrinjski</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:39</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:39</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:39</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/posusje-zrinjski/Qm3E8G9n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45229.58333333334</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Tuzla City</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>GOSK Gabela</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>30/10/2023 13:34</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>30/10/2023 13:34</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>30/10/2023 13:34</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/tuzla-city-nk-gosk-gabela/4v2I7zPh/</t>
         </is>
       </c>
     </row>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7081,6 +7081,98 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45233.75</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>GOSK Gabela</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Velez Mostar</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>02/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>03/11/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>02/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>03/11/2023 17:56</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>02/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>03/11/2023 17:56</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/nk-gosk-gabela-velez-mostar/je0Q5Eg5/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7173,6 +7173,190 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Igman K.</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>3</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Zvijezda 09</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/igman-konjic-zvijezda-09/Kzhs2WhU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Zeljeznicar</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Sloga Doboj</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>03/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:37</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>03/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:37</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>03/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:31</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zeljeznicar-sloga-doboj/KAOmNFOu/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Siroki Brijeg</t>
+          <t>Borac Banja Luka</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Zvijezda 09</t>
+          <t>Posusje</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>17/09/2023 19:43</t>
+          <t>17/09/2023 18:31</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.38</v>
+        <v>3.98</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.14</v>
+        <v>4.3</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>17/09/2023 19:43</t>
+          <t>17/09/2023 18:49</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>6.1</v>
+        <v>5.43</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>5.98</v>
+        <v>7.97</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>17/09/2023 19:43</t>
+          <t>17/09/2023 18:39</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/siroki-brijeg-zvijezda-09/z3Gq5Moc/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/borac-banja-luka-posusje/Ycx1tw9d/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Borac Banja Luka</t>
+          <t>Siroki Brijeg</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Zvijezda 09</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
         <v>1</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Posusje</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
       <c r="J37" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 18:31</t>
+          <t>17/09/2023 19:43</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.98</v>
+        <v>4.38</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>4.3</v>
+        <v>4.14</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>17/09/2023 18:49</t>
+          <t>17/09/2023 19:43</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>5.43</v>
+        <v>6.1</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>7.97</v>
+        <v>5.98</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>17/09/2023 18:39</t>
+          <t>17/09/2023 19:43</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/borac-banja-luka-posusje/Ycx1tw9d/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/siroki-brijeg-zvijezda-09/z3Gq5Moc/</t>
         </is>
       </c>
     </row>
@@ -7354,6 +7354,190 @@
       <c r="V75" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zeljeznicar-sloga-doboj/KAOmNFOu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45235.54166666666</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Siroki Brijeg</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Posusje</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/siroki-brijeg-posusje/tpgw3CwO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45235.54166666666</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Zrinjski</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Tuzla City</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:44</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zrinjski-tuzla-city/YJkV4Y8B/</t>
         </is>
       </c>
     </row>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Borac Banja Luka</t>
+          <t>Siroki Brijeg</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Zvijezda 09</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>1</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Posusje</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
       <c r="J36" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>17/09/2023 18:31</t>
+          <t>17/09/2023 19:43</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.98</v>
+        <v>4.38</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.3</v>
+        <v>4.14</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>17/09/2023 18:49</t>
+          <t>17/09/2023 19:43</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>5.43</v>
+        <v>6.1</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>7.97</v>
+        <v>5.98</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>17/09/2023 18:39</t>
+          <t>17/09/2023 19:43</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/borac-banja-luka-posusje/Ycx1tw9d/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/siroki-brijeg-zvijezda-09/z3Gq5Moc/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Siroki Brijeg</t>
+          <t>Borac Banja Luka</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Zvijezda 09</t>
+          <t>Posusje</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>17/09/2023 19:43</t>
+          <t>17/09/2023 18:31</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>4.38</v>
+        <v>3.98</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>4.14</v>
+        <v>4.3</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>17/09/2023 19:43</t>
+          <t>17/09/2023 18:49</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>6.1</v>
+        <v>5.43</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>5.98</v>
+        <v>7.97</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>17/09/2023 19:43</t>
+          <t>17/09/2023 18:39</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/siroki-brijeg-zvijezda-09/z3Gq5Moc/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/borac-banja-luka-posusje/Ycx1tw9d/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Siroki Brijeg</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Posusje</t>
+          <t>Tuzla City</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.9</v>
+        <v>1.21</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.44</v>
+        <v>1.16</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>05/11/2023 12:57</t>
+          <t>05/11/2023 12:44</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.07</v>
+        <v>5.75</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>2.69</v>
+        <v>7.26</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>05/11/2023 12:57</t>
+          <t>05/11/2023 12:55</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.8</v>
+        <v>8.65</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.44</v>
+        <v>14.64</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>05/11/2023 12:57</t>
+          <t>05/11/2023 12:55</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/siroki-brijeg-posusje/tpgw3CwO/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zrinjski-tuzla-city/YJkV4Y8B/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Siroki Brijeg</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Tuzla City</t>
+          <t>Posusje</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.21</v>
+        <v>1.9</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.16</v>
+        <v>2.44</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>05/11/2023 12:44</t>
+          <t>05/11/2023 12:57</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>5.75</v>
+        <v>3.07</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>7.26</v>
+        <v>2.69</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>05/11/2023 12:55</t>
+          <t>05/11/2023 12:57</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>8.65</v>
+        <v>3.8</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,108 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>14.64</v>
+        <v>3.44</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>05/11/2023 12:55</t>
+          <t>05/11/2023 12:57</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zrinjski-tuzla-city/YJkV4Y8B/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/siroki-brijeg-posusje/tpgw3CwO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45235.82291666666</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>FK Sarajevo</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Borac Banja Luka</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:18</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:18</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>05/11/2023 19:18</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/fk-sarajevo-borac-banja-luka/nNgZ3hOH/</t>
         </is>
       </c>
     </row>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Zrinjski</t>
+          <t>Siroki Brijeg</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Tuzla City</t>
+          <t>Posusje</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.21</v>
+        <v>1.9</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.16</v>
+        <v>2.44</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>05/11/2023 12:44</t>
+          <t>05/11/2023 12:57</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>5.75</v>
+        <v>3.07</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>7.26</v>
+        <v>2.69</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>05/11/2023 12:55</t>
+          <t>05/11/2023 12:57</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>8.65</v>
+        <v>3.8</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>14.64</v>
+        <v>3.44</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>05/11/2023 12:55</t>
+          <t>05/11/2023 12:57</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zrinjski-tuzla-city/YJkV4Y8B/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/siroki-brijeg-posusje/tpgw3CwO/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Siroki Brijeg</t>
+          <t>Zrinjski</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Posusje</t>
+          <t>Tuzla City</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.9</v>
+        <v>1.21</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.44</v>
+        <v>1.16</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>05/11/2023 12:57</t>
+          <t>05/11/2023 12:44</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.07</v>
+        <v>5.75</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>2.69</v>
+        <v>7.26</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>05/11/2023 12:57</t>
+          <t>05/11/2023 12:55</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.8</v>
+        <v>8.65</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.44</v>
+        <v>14.64</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>05/11/2023 12:57</t>
+          <t>05/11/2023 12:55</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/siroki-brijeg-posusje/tpgw3CwO/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zrinjski-tuzla-city/YJkV4Y8B/</t>
         </is>
       </c>
     </row>
@@ -7630,6 +7630,98 @@
       <c r="V78" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/fk-sarajevo-borac-banja-luka/nNgZ3hOH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45241.86458333334</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Posusje</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>FK Sarajevo</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>10/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>10/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:33</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>10/11/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/posusje-fk-sarajevo/j9uaKD8b/</t>
         </is>
       </c>
     </row>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7725,6 +7725,98 @@
         </is>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45242.54166666666</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Zvijezda 09</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>GOSK Gabela</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>12/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>12/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>12/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zvijezda-09-nk-gosk-gabela/tbYBHBhH/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7817,6 +7817,98 @@
         </is>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45242.63541666666</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Borac Banja Luka</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Zeljeznicar</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>12/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:09</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>12/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:09</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>12/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:09</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/borac-banja-luka-zeljeznicar/hOMeLggh/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7909,6 +7909,98 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45243.75</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Velez Mostar</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>3</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Zrinjski</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>12/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>13/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>12/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>13/11/2023 17:55</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>12/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>13/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/velez-mostar-zrinjski/COT7IiwB/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8001,6 +8001,98 @@
         </is>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45252.75</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Zrinjski</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>3</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Siroki Brijeg</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>03/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>22/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>03/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>22/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>03/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>22/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zrinjski-siroki-brijeg/l6bIl11G/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8093,6 +8093,98 @@
         </is>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45254.75</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>FK Sarajevo</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>6</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Tuzla City</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>2</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>23/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>24/11/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>23/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>24/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>23/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>24/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/fk-sarajevo-tuzla-city/CvIVXWxb/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8185,6 +8185,466 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Igman K.</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Borac Banja Luka</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>24/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/igman-konjic-borac-banja-luka/KlXFGV7N/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45256.54166666666</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sloga Doboj</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Zvijezda 09</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/sloga-doboj-zvijezda-09/vZDnB9Vp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45256.54166666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Zeljeznicar</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Posusje</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>25/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zeljeznicar-posusje/2DMKFkNT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45256.625</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>GOSK Gabela</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Zrinjski</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/nk-gosk-gabela-zrinjski/WS0YYCNi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45256.82291666666</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Siroki Brijeg</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Velez Mostar</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>25/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>26/11/2023 19:44</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>25/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>26/11/2023 19:44</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>25/11/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>26/11/2023 19:44</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/siroki-brijeg-velez-mostar/hx2UZh8o/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8645,6 +8645,98 @@
         </is>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45261.75</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Velez Mostar</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>FK Sarajevo</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>30/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>01/12/2023 17:50</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>30/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>01/12/2023 17:50</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>30/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>01/12/2023 17:50</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/velez-mostar-fk-sarajevo/vgYBD2iq/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8737,6 +8737,98 @@
         </is>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45262.5625</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Tuzla City</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Zeljeznicar</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:21</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:20</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>01/12/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:24</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/tuzla-city-zeljeznicar/beKsVUMG/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8829,6 +8829,98 @@
         </is>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45262.66666666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sloga Doboj</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Borac Banja Luka</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>4</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>01/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>01/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>01/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/sloga-doboj-borac-banja-luka/jVGZWjh4/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V92"/>
+  <dimension ref="A1:V108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Velez Mostar</t>
+          <t>Tuzla City</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Igman K.</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Zeljeznicar</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>2.28</v>
+        <v>1.74</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>03/09/2023 19:33</t>
+          <t>03/09/2023 19:42</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>2.94</v>
+        <v>3.53</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.16</v>
+        <v>3.43</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>03/09/2023 19:33</t>
+          <t>03/09/2023 19:42</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.97</v>
+        <v>3.9</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>03/09/2023 19:33</t>
+          <t>03/09/2023 19:42</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/velez-mostar-zeljeznicar/pYiRnuWS/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/tuzla-city-igman-konjic/nsvgravp/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tuzla City</t>
+          <t>Velez Mostar</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Igman K.</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.74</v>
+        <v>2.28</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>03/09/2023 19:42</t>
+          <t>03/09/2023 19:33</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.53</v>
+        <v>2.94</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.43</v>
+        <v>3.16</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>03/09/2023 19:42</t>
+          <t>03/09/2023 19:33</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.9</v>
+        <v>2.97</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.29</v>
+        <v>4.25</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>03/09/2023 19:42</t>
+          <t>03/09/2023 19:33</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/tuzla-city-igman-konjic/nsvgravp/</t>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/velez-mostar-zeljeznicar/pYiRnuWS/</t>
         </is>
       </c>
     </row>
@@ -8918,6 +8918,1478 @@
       <c r="V92" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/sloga-doboj-borac-banja-luka/jVGZWjh4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45263.54166666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Posusje</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>4</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Igman K.</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>02/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/posusje-igman-konjic/phGwWA7A/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45263.82291666666</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>GOSK Gabela</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Siroki Brijeg</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>02/12/2023 08:12</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:39</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>02/12/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:39</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>02/12/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>03/12/2023 19:39</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/nk-gosk-gabela-siroki-brijeg/nJyKBtMe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45264.54166666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Zvijezda 09</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Zrinjski</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>04/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>04/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>03/12/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>04/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zvijezda-09-zrinjski/IqXFCM6k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45266.54166666666</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Tuzla City</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Siroki Brijeg</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>05/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>06/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>05/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>06/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>05/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>06/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/tuzla-city-siroki-brijeg/YXU3JXN4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45268.75</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Zeljeznicar</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Velez Mostar</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>07/12/2023 06:11</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>08/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>07/12/2023 06:11</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>08/12/2023 17:51</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>07/12/2023 06:11</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>08/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zeljeznicar-velez-mostar/vkIAY3T8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45269.54166666666</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sloga Doboj</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Posusje</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/sloga-doboj-posusje/C2GIWsbL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45269.54166666666</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Zvijezda 09</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Borac Banja Luka</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zvijezda-09-borac-banja-luka/UwBNV1DR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45269.66666666666</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>FK Sarajevo</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>3</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>GOSK Gabela</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>08/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>08/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>08/12/2023 04:13</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/fk-sarajevo-nk-gosk-gabela/SEE6ZqE2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45270.54166666666</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Igman K.</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Tuzla City</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>09/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/igman-konjic-tuzla-city/YBHEXNrF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45270.63541666666</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Siroki Brijeg</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Zrinjski</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>09/12/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:14</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>09/12/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:14</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>09/12/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:14</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/siroki-brijeg-zrinjski/Q9zOA0y2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45275.75</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Posusje</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Borac Banja Luka</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>14/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>15/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>14/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>15/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>14/12/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>15/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/posusje-borac-banja-luka/WnckRLLr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45276.54166666666</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Tuzla City</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>3</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Sloga Doboj</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>15/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:54</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>15/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>15/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>16/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/tuzla-city-sloga-doboj/Q9dgQuyk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45276.66666666666</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>GOSK Gabela</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Zeljeznicar</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>15/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>15/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>15/12/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/nk-gosk-gabela-zeljeznicar/Myj2OJ51/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45277.54166666666</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Zvijezda 09</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>3</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Siroki Brijeg</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>16/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>16/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>16/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zvijezda-09-siroki-brijeg/EqhmnNc8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45277.625</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Velez Mostar</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Igman K.</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>16/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>16/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>16/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/velez-mostar-igman-konjic/vD0cPaje/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45278.75</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Zrinjski</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>FK Sarajevo</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>17/12/2023 06:13</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>18/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>17/12/2023 06:13</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>18/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>17/12/2023 06:13</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>18/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/zrinjski-fk-sarajevo/0Sl6NwL7/</t>
         </is>
       </c>
     </row>
